--- a/output12_summary_combined_models_interpretation.xlsx
+++ b/output12_summary_combined_models_interpretation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sensitivity Optimized</t>
+          <t>TPP Optimized</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>27.3</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sensitivity Optimized</t>
+          <t>TPP Optimized</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>Urine LAM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>94.7</v>
+        <v>94.2</v>
       </c>
       <c r="E4" t="n">
-        <v>54.7</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>Urine LAM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,102 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59.4</v>
+        <v>37.8</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sensitivity Optimized</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Parallel</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sensitivity Optimized</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Serial</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TPP Optimized</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Parallel</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TPP Optimized</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Serial</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
     </row>
   </sheetData>
